--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N2">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q2">
-        <v>0.9705792009826666</v>
+        <v>1.352018882749</v>
       </c>
       <c r="R2">
-        <v>8.735212808843999</v>
+        <v>12.168169944741</v>
       </c>
       <c r="S2">
-        <v>8.358239839272315E-05</v>
+        <v>0.0001087619317761574</v>
       </c>
       <c r="T2">
-        <v>8.358239839272314E-05</v>
+        <v>0.0001087619317761574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q3">
-        <v>15.83919040366978</v>
+        <v>17.93793927093767</v>
       </c>
       <c r="R3">
-        <v>142.552713633028</v>
+        <v>161.441453438439</v>
       </c>
       <c r="S3">
-        <v>0.001364007719511566</v>
+        <v>0.00144300124213041</v>
       </c>
       <c r="T3">
-        <v>0.001364007719511566</v>
+        <v>0.001443001242130411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N4">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O4">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P4">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q4">
-        <v>86.09573139203732</v>
+        <v>4.162537126633667</v>
       </c>
       <c r="R4">
-        <v>774.8615825283359</v>
+        <v>37.46283413970301</v>
       </c>
       <c r="S4">
-        <v>0.007414219997540066</v>
+        <v>0.0003348515207584573</v>
       </c>
       <c r="T4">
-        <v>0.007414219997540063</v>
+        <v>0.0003348515207584573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N5">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O5">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P5">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q5">
-        <v>4719.087356179559</v>
+        <v>5497.381671074288</v>
       </c>
       <c r="R5">
-        <v>42471.78620561602</v>
+        <v>49476.43503966858</v>
       </c>
       <c r="S5">
-        <v>0.4063889263801632</v>
+        <v>0.4422318784787858</v>
       </c>
       <c r="T5">
-        <v>0.406388926380163</v>
+        <v>0.4422318784787859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N6">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q6">
-        <v>0.442364729967</v>
+        <v>0.5441175075510001</v>
       </c>
       <c r="R6">
-        <v>3.981282569703</v>
+        <v>4.897057567959</v>
       </c>
       <c r="S6">
-        <v>3.809468104978638E-05</v>
+        <v>4.377103899181353E-05</v>
       </c>
       <c r="T6">
-        <v>3.809468104978637E-05</v>
+        <v>4.377103899181353E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.316709</v>
       </c>
       <c r="O7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q7">
         <v>7.219090599429001</v>
@@ -883,10 +883,10 @@
         <v>64.971815394861</v>
       </c>
       <c r="S7">
-        <v>0.0006216792054720871</v>
+        <v>0.0005807331904008325</v>
       </c>
       <c r="T7">
-        <v>0.0006216792054720869</v>
+        <v>0.0005807331904008326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N8">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O8">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P8">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q8">
-        <v>39.240192794148</v>
+        <v>1.675205394933</v>
       </c>
       <c r="R8">
-        <v>353.161735147332</v>
+        <v>15.076848554397</v>
       </c>
       <c r="S8">
-        <v>0.003379208439462856</v>
+        <v>0.0001347603773878494</v>
       </c>
       <c r="T8">
-        <v>0.003379208439462855</v>
+        <v>0.0001347603773878494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N9">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O9">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P9">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q9">
-        <v>2150.837151562179</v>
+        <v>2212.411121684613</v>
       </c>
       <c r="R9">
-        <v>19357.53436405961</v>
+        <v>19911.70009516152</v>
       </c>
       <c r="S9">
-        <v>0.1852214919686399</v>
+        <v>0.177975404447177</v>
       </c>
       <c r="T9">
-        <v>0.1852214919686399</v>
+        <v>0.177975404447177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N10">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q10">
-        <v>0.24684371386</v>
+        <v>0.423906262738</v>
       </c>
       <c r="R10">
-        <v>2.22159342474</v>
+        <v>3.815156364641999</v>
       </c>
       <c r="S10">
-        <v>2.125719324265052E-05</v>
+        <v>3.410075452027209E-05</v>
       </c>
       <c r="T10">
-        <v>2.125719324265052E-05</v>
+        <v>3.41007545202721E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.316709</v>
       </c>
       <c r="O11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q11">
-        <v>4.028321006486667</v>
+        <v>5.624185353168667</v>
       </c>
       <c r="R11">
-        <v>36.25488905838</v>
+        <v>50.617668178518</v>
       </c>
       <c r="S11">
-        <v>0.0003469028914663062</v>
+        <v>0.0004524324855833796</v>
       </c>
       <c r="T11">
-        <v>0.0003469028914663061</v>
+        <v>0.0004524324855833797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N12">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O12">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P12">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q12">
-        <v>21.89639965784</v>
+        <v>1.305104225520666</v>
       </c>
       <c r="R12">
-        <v>197.06759692056</v>
+        <v>11.745938029686</v>
       </c>
       <c r="S12">
-        <v>0.001885630351150039</v>
+        <v>0.0001049879247605193</v>
       </c>
       <c r="T12">
-        <v>0.001885630351150039</v>
+        <v>0.0001049879247605193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N13">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O13">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P13">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q13">
-        <v>1200.18752498482</v>
+        <v>1723.625719110694</v>
       </c>
       <c r="R13">
-        <v>10801.68772486338</v>
+        <v>15512.63147199624</v>
       </c>
       <c r="S13">
-        <v>0.10335534880378</v>
+        <v>0.1386555064145135</v>
       </c>
       <c r="T13">
-        <v>0.10335534880378</v>
+        <v>0.1386555064145136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N14">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q14">
-        <v>0.6775452379050001</v>
+        <v>0.7242324751786667</v>
       </c>
       <c r="R14">
-        <v>6.097907141145001</v>
+        <v>6.518092276608</v>
       </c>
       <c r="S14">
-        <v>5.834748565220847E-05</v>
+        <v>5.826022406972775E-05</v>
       </c>
       <c r="T14">
-        <v>5.834748565220846E-05</v>
+        <v>5.826022406972776E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.316709</v>
       </c>
       <c r="O15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q15">
-        <v>11.057076042235</v>
+        <v>9.608769761692445</v>
       </c>
       <c r="R15">
-        <v>99.51368438011501</v>
+        <v>86.478927855232</v>
       </c>
       <c r="S15">
-        <v>0.000952191159551981</v>
+        <v>0.0007729687614636759</v>
       </c>
       <c r="T15">
-        <v>0.0009521911595519808</v>
+        <v>0.000772968761463676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N16">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O16">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P16">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q16">
-        <v>60.10200172182001</v>
+        <v>2.229735549340444</v>
       </c>
       <c r="R16">
-        <v>540.9180154963801</v>
+        <v>20.067619944064</v>
       </c>
       <c r="S16">
-        <v>0.005175743975378066</v>
+        <v>0.0001793690523043233</v>
       </c>
       <c r="T16">
-        <v>0.005175743975378064</v>
+        <v>0.0001793690523043234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N17">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O17">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P17">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q17">
-        <v>3294.316591783485</v>
+        <v>2944.768290919723</v>
       </c>
       <c r="R17">
-        <v>29648.84932605137</v>
+        <v>26502.9146182775</v>
       </c>
       <c r="S17">
-        <v>0.2836933673495468</v>
+        <v>0.2368892121553761</v>
       </c>
       <c r="T17">
-        <v>0.2836933673495466</v>
+        <v>0.2368892121553761</v>
       </c>
     </row>
   </sheetData>
